--- a/src/ExcelsiorAspose.Tests/Tests.DisplayAttributes.DotNet.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/Tests.DisplayAttributes.DotNet.verified.xlsx
@@ -490,11 +490,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="13.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="9.42857142857143" customWidth="1"/>
+    <col min="2" max="2" width="9.71428571428571" customWidth="1"/>
+    <col min="3" max="3" width="12.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="9.71428571428571" customWidth="1"/>
     <col min="5" max="5" width="16.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="10.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="10.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75">

--- a/src/ExcelsiorAspose.Tests/Tests.DisplayAttributes.DotNet.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/Tests.DisplayAttributes.DotNet.verified.xlsx
@@ -480,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -490,61 +490,61 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="9.71428571428571" customWidth="1"/>
-    <col min="3" max="3" width="12.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="9.71428571428571" customWidth="1"/>
-    <col min="5" max="5" width="16.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="10.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="9.71428571428571" customWidth="1"/>
+    <col min="2" max="2" width="12.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="9.71428571428571" customWidth="1"/>
+    <col min="4" max="4" width="16.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="10.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75">
+    <row r="1" spans="1:5" ht="12.75">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="12.75">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>999.99000000000001</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="12.75">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="12.75">
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1">
-        <v>999.99000000000001</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="12.75">
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1">
+      <c r="C3" s="1">
         <v>29.989999999999998</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
